--- a/actions/wiki_countrys.xlsx
+++ b/actions/wiki_countrys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\rasa-ci\InsuranceCheck\actions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B800E05C-19C5-4963-9742-F09D3C40F6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761277F-9CC6-4B75-99C8-77EC4CFFEA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2C7FACB3-1D2B-455A-BE90-909ED703A01B}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11505" xr2:uid="{2C7FACB3-1D2B-455A-BE90-909ED703A01B}"/>
   </bookViews>
   <sheets>
     <sheet name="wiki_countrys" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="632">
   <si>
     <t>ABC</t>
   </si>
@@ -1358,9 +1358,6 @@
     <t>republik china</t>
   </si>
   <si>
-    <t>volksrepublik china</t>
-  </si>
-  <si>
     <t>cookinseln</t>
   </si>
   <si>
@@ -1923,6 +1920,15 @@
   </si>
   <si>
     <t>zypern</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>amerika</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2005,16 +2011,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2330,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F2B5C-A179-415D-B524-6530ABC30414}">
-  <dimension ref="A1:F254"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A254"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,20 +2353,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2748,7 +2758,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>441</v>
+        <v>629</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>64</v>
@@ -2759,7 +2769,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>66</v>
@@ -2770,7 +2780,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>68</v>
@@ -2781,7 +2791,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>70</v>
@@ -2792,7 +2802,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>72</v>
@@ -2803,7 +2813,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>74</v>
@@ -2814,7 +2824,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>76</v>
@@ -2825,7 +2835,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>78</v>
@@ -2836,7 +2846,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>80</v>
@@ -2847,7 +2857,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>82</v>
@@ -2858,7 +2868,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>84</v>
@@ -2869,7 +2879,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>86</v>
@@ -2880,7 +2890,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>88</v>
@@ -2891,7 +2901,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>90</v>
@@ -2902,7 +2912,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>92</v>
@@ -2918,7 +2928,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>94</v>
@@ -2929,14 +2939,14 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>96</v>
@@ -2947,7 +2957,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>98</v>
@@ -2958,7 +2968,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>100</v>
@@ -2969,14 +2979,14 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>102</v>
@@ -2987,7 +2997,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>104</v>
@@ -2998,7 +3008,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>106</v>
@@ -3009,7 +3019,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>108</v>
@@ -3020,7 +3030,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>110</v>
@@ -3031,7 +3041,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>112</v>
@@ -3042,7 +3052,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>114</v>
@@ -3053,7 +3063,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>116</v>
@@ -3064,7 +3074,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>118</v>
@@ -3075,7 +3085,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>120</v>
@@ -3086,14 +3096,14 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>122</v>
@@ -3104,7 +3114,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>124</v>
@@ -3115,7 +3125,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>126</v>
@@ -3126,7 +3136,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>128</v>
@@ -3142,7 +3152,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>130</v>
@@ -3153,7 +3163,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>132</v>
@@ -3169,7 +3179,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>134</v>
@@ -3180,7 +3190,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>136</v>
@@ -3191,7 +3201,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>138</v>
@@ -3202,7 +3212,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>140</v>
@@ -3218,7 +3228,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>142</v>
@@ -3229,7 +3239,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>144</v>
@@ -3240,7 +3250,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>146</v>
@@ -3256,7 +3266,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>148</v>
@@ -3267,7 +3277,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>150</v>
@@ -3278,7 +3288,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>152</v>
@@ -3294,7 +3304,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>154</v>
@@ -3305,7 +3315,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>156</v>
@@ -3316,7 +3326,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>158</v>
@@ -3332,7 +3342,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>160</v>
@@ -3343,7 +3353,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>162</v>
@@ -3354,7 +3364,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>164</v>
@@ -3365,7 +3375,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>166</v>
@@ -3376,7 +3386,7 @@
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>168</v>
@@ -3387,7 +3397,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>170</v>
@@ -3398,7 +3408,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>172</v>
@@ -3414,7 +3424,7 @@
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>174</v>
@@ -3430,7 +3440,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>176</v>
@@ -3446,7 +3456,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>178</v>
@@ -3457,7 +3467,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>180</v>
@@ -3468,7 +3478,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>182</v>
@@ -3479,7 +3489,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>184</v>
@@ -3490,7 +3500,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>186</v>
@@ -3501,7 +3511,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>188</v>
@@ -3512,7 +3522,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>190</v>
@@ -3523,7 +3533,7 @@
     </row>
     <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>192</v>
@@ -3534,7 +3544,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>194</v>
@@ -3545,7 +3555,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>196</v>
@@ -3561,7 +3571,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>198</v>
@@ -3582,7 +3592,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>200</v>
@@ -3593,7 +3603,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>202</v>
@@ -3604,7 +3614,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>204</v>
@@ -3615,7 +3625,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>206</v>
@@ -3626,7 +3636,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>208</v>
@@ -3637,7 +3647,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>210</v>
@@ -3648,7 +3658,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>212</v>
@@ -3659,14 +3669,14 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>214</v>
@@ -3677,7 +3687,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>216</v>
@@ -3688,7 +3698,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>218</v>
@@ -3699,7 +3709,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>220</v>
@@ -3710,7 +3720,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>222</v>
@@ -3721,7 +3731,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>224</v>
@@ -3732,14 +3742,14 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>226</v>
@@ -3750,7 +3760,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>228</v>
@@ -3761,7 +3771,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>230</v>
@@ -3772,7 +3782,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>232</v>
@@ -3783,7 +3793,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>234</v>
@@ -3794,7 +3804,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>236</v>
@@ -3805,7 +3815,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>238</v>
@@ -3816,7 +3826,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>240</v>
@@ -3827,7 +3837,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>242</v>
@@ -3843,7 +3853,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>244</v>
@@ -3854,7 +3864,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>246</v>
@@ -3865,28 +3875,28 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>248</v>
@@ -3897,7 +3907,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>250</v>
@@ -3908,7 +3918,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>252</v>
@@ -3919,7 +3929,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>254</v>
@@ -3935,14 +3945,14 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>256</v>
@@ -3953,14 +3963,14 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
     </row>
     <row r="162" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>258</v>
@@ -3971,7 +3981,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>260</v>
@@ -3982,7 +3992,7 @@
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>262</v>
@@ -3998,7 +4008,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>264</v>
@@ -4009,14 +4019,14 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>266</v>
@@ -4032,7 +4042,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>268</v>
@@ -4043,7 +4053,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>270</v>
@@ -4054,7 +4064,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>272</v>
@@ -4065,7 +4075,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>274</v>
@@ -4081,7 +4091,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>276</v>
@@ -4092,7 +4102,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>278</v>
@@ -4103,7 +4113,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>280</v>
@@ -4114,7 +4124,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>282</v>
@@ -4125,7 +4135,7 @@
     </row>
     <row r="179" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>284</v>
@@ -4136,7 +4146,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>286</v>
@@ -4147,7 +4157,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>288</v>
@@ -4158,14 +4168,14 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>290</v>
@@ -4176,7 +4186,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>292</v>
@@ -4187,7 +4197,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>294</v>
@@ -4198,7 +4208,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>296</v>
@@ -4209,7 +4219,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>298</v>
@@ -4220,7 +4230,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>300</v>
@@ -4231,7 +4241,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>302</v>
@@ -4242,7 +4252,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>304</v>
@@ -4268,7 +4278,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>306</v>
@@ -4279,7 +4289,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>308</v>
@@ -4290,14 +4300,14 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>310</v>
@@ -4313,7 +4323,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>312</v>
@@ -4324,7 +4334,7 @@
     </row>
     <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>314</v>
@@ -4335,7 +4345,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>316</v>
@@ -4346,7 +4356,7 @@
     </row>
     <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>318</v>
@@ -4362,7 +4372,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>320</v>
@@ -4378,7 +4388,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>322</v>
@@ -4389,21 +4399,21 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>324</v>
@@ -4414,7 +4424,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>326</v>
@@ -4430,7 +4440,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>328</v>
@@ -4441,7 +4451,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>330</v>
@@ -4452,7 +4462,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>332</v>
@@ -4463,7 +4473,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>334</v>
@@ -4474,7 +4484,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>336</v>
@@ -4485,7 +4495,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>338</v>
@@ -4494,7 +4504,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>339</v>
@@ -4505,7 +4515,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>341</v>
@@ -4516,7 +4526,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>343</v>
@@ -4527,7 +4537,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>345</v>
@@ -4538,14 +4548,14 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>347</v>
@@ -4556,7 +4566,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>349</v>
@@ -4567,7 +4577,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>351</v>
@@ -4578,7 +4588,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>353</v>
@@ -4589,7 +4599,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>355</v>
@@ -4600,14 +4610,14 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>357</v>
@@ -4618,7 +4628,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>359</v>
@@ -4629,7 +4639,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>361</v>
@@ -4640,7 +4650,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>363</v>
@@ -4651,7 +4661,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>365</v>
@@ -4662,7 +4672,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>367</v>
@@ -4673,7 +4683,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>369</v>
@@ -4684,7 +4694,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>371</v>
@@ -4695,7 +4705,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>373</v>
@@ -4706,14 +4716,14 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>375</v>
@@ -4724,7 +4734,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>377</v>
@@ -4735,7 +4745,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>379</v>
@@ -4746,7 +4756,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>381</v>
@@ -4757,7 +4767,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>383</v>
@@ -4768,7 +4778,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>385</v>
@@ -4779,7 +4789,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>387</v>
@@ -4790,7 +4800,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>389</v>
@@ -4801,149 +4811,116 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>392</v>
+      <c r="A248" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="8"/>
+      <c r="A249" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="B250" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="B254" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>402</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:C251"/>
     <mergeCell ref="B246:B247"/>
     <mergeCell ref="C246:C247"/>
     <mergeCell ref="B237:B238"/>
@@ -4955,11 +4932,66 @@
     <mergeCell ref="B206:B207"/>
     <mergeCell ref="C206:C207"/>
     <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B106" r:id="rId1" location="cite_note-13" display="https://de.wikipedia.org/wiki/Liste_der_Staaten_der_Erde - cite_note-13" xr:uid="{E8D4EC52-37AF-419F-AA77-1ECA7922375A}"/>
